--- a/Social charging model/Export_ModelData.xlsx
+++ b/Social charging model/Export_ModelData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>year</t>
   </si>

--- a/Social charging model/Export_ModelData.xlsx
+++ b/Social charging model/Export_ModelData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>year</t>
   </si>

--- a/Social charging model/Export_ModelData.xlsx
+++ b/Social charging model/Export_ModelData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>year</t>
   </si>

--- a/Social charging model/Export_ModelData.xlsx
+++ b/Social charging model/Export_ModelData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="8">
   <si>
     <t>year</t>
   </si>
